--- a/bench/bench-8core.xlsx
+++ b/bench/bench-8core.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +104,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,9 +144,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -478,14 +469,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -499,13 +490,13 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -516,390 +507,390 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1.076289766</v>
+        <v>1.096199236</v>
       </c>
       <c r="D2" s="3">
-        <v>1.159067062</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.13295825</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1.14890598</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.144224574</v>
+        <v>1.178071623</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.143731787</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.536088672</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.204210522</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.159601034</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1.060343342</v>
+        <v>1.060374593</v>
       </c>
       <c r="D3" s="3">
-        <v>1.280653236</v>
+        <v>1.236083122</v>
       </c>
       <c r="E3" s="3">
-        <v>1.231915939</v>
+        <v>1.2024832</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>1.438637213</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.257016242</v>
+        <v>1.361288993</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.222321517</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>1.031878928</v>
+        <v>1.029541179</v>
       </c>
       <c r="D4" s="3">
-        <v>1.077156663</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.091231025</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.248530839</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.092973264</v>
+        <v>1.077249121</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.086384155</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.295509563</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.27971136</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.088404483</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1.045258728</v>
+        <v>1.045270705</v>
       </c>
       <c r="D5" s="3">
-        <v>1.160538969</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.1314968</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.351326613</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.13521154</v>
+        <v>1.14473178</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.110521377</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.362461169</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.372205139</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.11612701</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>1.041206193</v>
+        <v>1.041152461</v>
       </c>
       <c r="D6" s="3">
-        <v>1.192802573</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.072357043</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
+        <v>1.243701771</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.098155062</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.491947528</v>
       </c>
       <c r="G6" s="3">
-        <v>1.260872163</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.105590501</v>
+        <v>1.288529852</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.113620724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1.023557679</v>
+        <v>1.003395516</v>
       </c>
       <c r="D7" s="3">
-        <v>1.177192029</v>
+        <v>1.135951791</v>
       </c>
       <c r="E7" s="3">
-        <v>1.222795931</v>
+        <v>1.194655928</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>1.455628314</v>
       </c>
       <c r="G7" s="3">
-        <v>1.535669407</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.239201187</v>
+        <v>1.535285128</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.212415172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1.000093257</v>
+        <v>1.001869185</v>
       </c>
       <c r="D8" s="3">
-        <v>1.209461333</v>
+        <v>1.175606075</v>
       </c>
       <c r="E8" s="3">
-        <v>1.229883984</v>
+        <v>1.202103556</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>1.45566643</v>
       </c>
       <c r="G8" s="3">
-        <v>1.601218885</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.232277329</v>
+        <v>1.599681202</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.205031197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1.080642902</v>
+        <v>1.056951608</v>
       </c>
       <c r="D9" s="3">
-        <v>1.300879565</v>
+        <v>1.262902621</v>
       </c>
       <c r="E9" s="3">
-        <v>1.245661828</v>
+        <v>1.219217132</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1.491475429</v>
       </c>
       <c r="G9" s="3">
-        <v>1.383280346</v>
+        <v>1.383017933</v>
       </c>
       <c r="H9" s="3">
-        <v>1.253195642</v>
+        <v>1.222495308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>1.076115112</v>
+        <v>1.094847677</v>
       </c>
       <c r="D10" s="3">
-        <v>1.333121483</v>
+        <v>1.312985696</v>
       </c>
       <c r="E10" s="3">
-        <v>1.230737738</v>
+        <v>1.20768935</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>1.516453077</v>
       </c>
       <c r="G10" s="3">
-        <v>1.650584775</v>
+        <v>1.675480365</v>
       </c>
       <c r="H10" s="3">
-        <v>1.244139632</v>
+        <v>1.219336279</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1.062165911</v>
+        <v>1.012511794</v>
       </c>
       <c r="D11" s="3">
-        <v>1.242245044</v>
+        <v>1.20994812</v>
       </c>
       <c r="E11" s="3">
-        <v>1.229088848</v>
+        <v>1.200792969</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>1.516463347</v>
       </c>
       <c r="G11" s="3">
-        <v>1.521241344</v>
+        <v>1.544131523</v>
       </c>
       <c r="H11" s="3">
-        <v>1.24713215</v>
+        <v>1.218605625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1.004237462</v>
+        <v>1.000672967</v>
       </c>
       <c r="D12" s="3">
-        <v>1.036336321</v>
+        <v>1.087619118</v>
       </c>
       <c r="E12" s="3">
-        <v>1.099066918</v>
+        <v>1.167035589</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>1.537995893</v>
       </c>
       <c r="G12" s="3">
-        <v>1.263087756</v>
+        <v>1.408888019</v>
       </c>
       <c r="H12" s="3">
-        <v>1.146857978</v>
+        <v>1.206435418</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1.007902493</v>
+        <v>1.00778024</v>
       </c>
       <c r="D13" s="3">
-        <v>1.016655537</v>
+        <v>1.018490677</v>
       </c>
       <c r="E13" s="3">
-        <v>1.011191584</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
+        <v>1.011498531</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.06669433</v>
       </c>
       <c r="G13" s="3">
-        <v>1.033264885</v>
+        <v>1.038462792</v>
       </c>
       <c r="H13" s="3">
-        <v>1.014248458</v>
+        <v>1.015587786</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1.123726243</v>
+        <v>1.143231284</v>
       </c>
       <c r="D14" s="3">
-        <v>1.37238406</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.239804805</v>
+        <v>1.357314283</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.252342249</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>1.594507673</v>
       </c>
       <c r="G14" s="3">
-        <v>1.471740195</v>
+        <v>1.507520853</v>
       </c>
       <c r="H14" s="3">
-        <v>1.279712672</v>
+        <v>1.271770695</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1.048592566</v>
+        <v>1.047682845</v>
       </c>
       <c r="D15" s="3">
-        <v>1.181637436</v>
+        <v>1.213457809</v>
       </c>
       <c r="E15" s="3">
-        <v>1.096439471</v>
+        <v>1.091743875</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1.581278805</v>
       </c>
       <c r="G15" s="3">
-        <v>1.301897236</v>
+        <v>1.338742581</v>
       </c>
       <c r="H15" s="3">
-        <v>1.115057385</v>
+        <v>1.113304907</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>1.048715042</v>
+        <v>1.045820092</v>
       </c>
       <c r="D16" s="3">
-        <v>1.195723665</v>
+        <v>1.189579543</v>
       </c>
       <c r="E16" s="3">
-        <v>1.161759297</v>
+        <v>1.156311054</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1.452914817</v>
       </c>
       <c r="G16" s="3">
-        <v>1.34083003</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1.179059897</v>
+        <v>1.395511162</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.170361225</v>
       </c>
     </row>
   </sheetData>

--- a/bench/bench-8core.xlsx
+++ b/bench/bench-8core.xlsx
@@ -514,19 +514,19 @@
         <v>1.096199236</v>
       </c>
       <c r="D2" s="3">
+        <v>1.143731787</v>
+      </c>
+      <c r="E2" s="3">
         <v>1.178071623</v>
       </c>
-      <c r="E2" s="3">
-        <v>1.143731787</v>
-      </c>
       <c r="F2" s="3">
-        <v>1.536088672</v>
+        <v>1.159601034</v>
       </c>
       <c r="G2" s="3">
         <v>1.204210522</v>
       </c>
       <c r="H2" s="4">
-        <v>1.159601034</v>
+        <v>1.536088672</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -540,19 +540,19 @@
         <v>1.060374593</v>
       </c>
       <c r="D3" s="3">
+        <v>1.2024832</v>
+      </c>
+      <c r="E3" s="3">
         <v>1.236083122</v>
       </c>
-      <c r="E3" s="3">
-        <v>1.2024832</v>
-      </c>
       <c r="F3" s="3">
-        <v>1.438637213</v>
+        <v>1.222321517</v>
       </c>
       <c r="G3" s="3">
         <v>1.361288993</v>
       </c>
       <c r="H3" s="4">
-        <v>1.222321517</v>
+        <v>1.438637213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -566,19 +566,19 @@
         <v>1.029541179</v>
       </c>
       <c r="D4" s="3">
+        <v>1.086384155</v>
+      </c>
+      <c r="E4" s="3">
         <v>1.077249121</v>
       </c>
-      <c r="E4" s="3">
-        <v>1.086384155</v>
-      </c>
       <c r="F4" s="3">
-        <v>1.295509563</v>
+        <v>1.088404483</v>
       </c>
       <c r="G4" s="3">
         <v>1.27971136</v>
       </c>
       <c r="H4" s="4">
-        <v>1.088404483</v>
+        <v>1.295509563</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -592,19 +592,19 @@
         <v>1.045270705</v>
       </c>
       <c r="D5" s="3">
+        <v>1.110521377</v>
+      </c>
+      <c r="E5" s="3">
         <v>1.14473178</v>
       </c>
-      <c r="E5" s="3">
-        <v>1.110521377</v>
-      </c>
       <c r="F5" s="3">
-        <v>1.362461169</v>
+        <v>1.11612701</v>
       </c>
       <c r="G5" s="3">
         <v>1.372205139</v>
       </c>
       <c r="H5" s="4">
-        <v>1.11612701</v>
+        <v>1.362461169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -618,19 +618,19 @@
         <v>1.041152461</v>
       </c>
       <c r="D6" s="3">
+        <v>1.098155062</v>
+      </c>
+      <c r="E6" s="3">
         <v>1.243701771</v>
       </c>
-      <c r="E6" s="3">
-        <v>1.098155062</v>
-      </c>
       <c r="F6" s="3">
-        <v>1.491947528</v>
+        <v>1.113620724</v>
       </c>
       <c r="G6" s="3">
         <v>1.288529852</v>
       </c>
       <c r="H6" s="4">
-        <v>1.113620724</v>
+        <v>1.491947528</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -644,19 +644,19 @@
         <v>1.003395516</v>
       </c>
       <c r="D7" s="3">
+        <v>1.194655928</v>
+      </c>
+      <c r="E7" s="3">
         <v>1.135951791</v>
       </c>
-      <c r="E7" s="3">
-        <v>1.194655928</v>
-      </c>
       <c r="F7" s="3">
-        <v>1.455628314</v>
+        <v>1.212415172</v>
       </c>
       <c r="G7" s="3">
         <v>1.535285128</v>
       </c>
       <c r="H7" s="4">
-        <v>1.212415172</v>
+        <v>1.455628314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -670,19 +670,19 @@
         <v>1.001869185</v>
       </c>
       <c r="D8" s="3">
+        <v>1.202103556</v>
+      </c>
+      <c r="E8" s="3">
         <v>1.175606075</v>
       </c>
-      <c r="E8" s="3">
-        <v>1.202103556</v>
-      </c>
       <c r="F8" s="3">
-        <v>1.45566643</v>
+        <v>1.205031197</v>
       </c>
       <c r="G8" s="3">
         <v>1.599681202</v>
       </c>
       <c r="H8" s="4">
-        <v>1.205031197</v>
+        <v>1.45566643</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -696,19 +696,19 @@
         <v>1.056951608</v>
       </c>
       <c r="D9" s="3">
+        <v>1.219217132</v>
+      </c>
+      <c r="E9" s="3">
         <v>1.262902621</v>
       </c>
-      <c r="E9" s="3">
-        <v>1.219217132</v>
-      </c>
       <c r="F9" s="3">
-        <v>1.491475429</v>
+        <v>1.222495308</v>
       </c>
       <c r="G9" s="3">
         <v>1.383017933</v>
       </c>
       <c r="H9" s="3">
-        <v>1.222495308</v>
+        <v>1.491475429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -722,19 +722,19 @@
         <v>1.094847677</v>
       </c>
       <c r="D10" s="3">
+        <v>1.20768935</v>
+      </c>
+      <c r="E10" s="3">
         <v>1.312985696</v>
       </c>
-      <c r="E10" s="3">
-        <v>1.20768935</v>
-      </c>
       <c r="F10" s="3">
-        <v>1.516453077</v>
+        <v>1.219336279</v>
       </c>
       <c r="G10" s="3">
         <v>1.675480365</v>
       </c>
       <c r="H10" s="3">
-        <v>1.219336279</v>
+        <v>1.516453077</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -748,19 +748,19 @@
         <v>1.012511794</v>
       </c>
       <c r="D11" s="3">
+        <v>1.200792969</v>
+      </c>
+      <c r="E11" s="3">
         <v>1.20994812</v>
       </c>
-      <c r="E11" s="3">
-        <v>1.200792969</v>
-      </c>
       <c r="F11" s="3">
-        <v>1.516463347</v>
+        <v>1.218605625</v>
       </c>
       <c r="G11" s="3">
         <v>1.544131523</v>
       </c>
       <c r="H11" s="3">
-        <v>1.218605625</v>
+        <v>1.516463347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -774,19 +774,19 @@
         <v>1.000672967</v>
       </c>
       <c r="D12" s="3">
+        <v>1.167035589</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.087619118</v>
       </c>
-      <c r="E12" s="3">
-        <v>1.167035589</v>
-      </c>
       <c r="F12" s="3">
-        <v>1.537995893</v>
+        <v>1.206435418</v>
       </c>
       <c r="G12" s="3">
         <v>1.408888019</v>
       </c>
       <c r="H12" s="3">
-        <v>1.206435418</v>
+        <v>1.537995893</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -800,19 +800,19 @@
         <v>1.00778024</v>
       </c>
       <c r="D13" s="3">
+        <v>1.011498531</v>
+      </c>
+      <c r="E13" s="3">
         <v>1.018490677</v>
       </c>
-      <c r="E13" s="3">
-        <v>1.011498531</v>
-      </c>
       <c r="F13" s="3">
-        <v>1.06669433</v>
+        <v>1.015587786</v>
       </c>
       <c r="G13" s="3">
         <v>1.038462792</v>
       </c>
       <c r="H13" s="3">
-        <v>1.015587786</v>
+        <v>1.06669433</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -826,19 +826,19 @@
         <v>1.143231284</v>
       </c>
       <c r="D14" s="3">
+        <v>1.252342249</v>
+      </c>
+      <c r="E14" s="3">
         <v>1.357314283</v>
       </c>
-      <c r="E14" s="3">
-        <v>1.252342249</v>
-      </c>
       <c r="F14" s="3">
-        <v>1.594507673</v>
+        <v>1.271770695</v>
       </c>
       <c r="G14" s="3">
         <v>1.507520853</v>
       </c>
       <c r="H14" s="3">
-        <v>1.271770695</v>
+        <v>1.594507673</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -852,19 +852,19 @@
         <v>1.047682845</v>
       </c>
       <c r="D15" s="3">
+        <v>1.091743875</v>
+      </c>
+      <c r="E15" s="3">
         <v>1.213457809</v>
       </c>
-      <c r="E15" s="3">
-        <v>1.091743875</v>
-      </c>
       <c r="F15" s="3">
-        <v>1.581278805</v>
+        <v>1.113304907</v>
       </c>
       <c r="G15" s="3">
         <v>1.338742581</v>
       </c>
       <c r="H15" s="3">
-        <v>1.113304907</v>
+        <v>1.581278805</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -878,19 +878,19 @@
         <v>1.045820092</v>
       </c>
       <c r="D16" s="3">
+        <v>1.156311054</v>
+      </c>
+      <c r="E16" s="3">
         <v>1.189579543</v>
       </c>
-      <c r="E16" s="3">
-        <v>1.156311054</v>
-      </c>
       <c r="F16" s="3">
-        <v>1.452914817</v>
+        <v>1.170361225</v>
       </c>
       <c r="G16" s="3">
         <v>1.395511162</v>
       </c>
       <c r="H16" s="4">
-        <v>1.170361225</v>
+        <v>1.452914817</v>
       </c>
     </row>
   </sheetData>

--- a/bench/bench-8core.xlsx
+++ b/bench/bench-8core.xlsx
@@ -514,10 +514,10 @@
         <v>1.096199236</v>
       </c>
       <c r="D2" s="3">
-        <v>1.143731787</v>
+        <v>1.159487842</v>
       </c>
       <c r="E2" s="3">
-        <v>1.178071623</v>
+        <v>1.231896994</v>
       </c>
       <c r="F2" s="3">
         <v>1.159601034</v>
@@ -540,7 +540,7 @@
         <v>1.060374593</v>
       </c>
       <c r="D3" s="3">
-        <v>1.2024832</v>
+        <v>1.22292089</v>
       </c>
       <c r="E3" s="3">
         <v>1.236083122</v>
@@ -566,10 +566,10 @@
         <v>1.029541179</v>
       </c>
       <c r="D4" s="3">
-        <v>1.086384155</v>
+        <v>1.091826347</v>
       </c>
       <c r="E4" s="3">
-        <v>1.077249121</v>
+        <v>1.081064855</v>
       </c>
       <c r="F4" s="3">
         <v>1.088404483</v>
@@ -592,10 +592,10 @@
         <v>1.045270705</v>
       </c>
       <c r="D5" s="3">
-        <v>1.110521377</v>
+        <v>1.11581984</v>
       </c>
       <c r="E5" s="3">
-        <v>1.14473178</v>
+        <v>1.164563028</v>
       </c>
       <c r="F5" s="3">
         <v>1.11612701</v>
@@ -618,10 +618,10 @@
         <v>1.041152461</v>
       </c>
       <c r="D6" s="3">
-        <v>1.098155062</v>
+        <v>1.105777922</v>
       </c>
       <c r="E6" s="3">
-        <v>1.243701771</v>
+        <v>1.218693595</v>
       </c>
       <c r="F6" s="3">
         <v>1.113620724</v>
@@ -644,10 +644,10 @@
         <v>1.003395516</v>
       </c>
       <c r="D7" s="3">
-        <v>1.194655928</v>
+        <v>1.198236411</v>
       </c>
       <c r="E7" s="3">
-        <v>1.135951791</v>
+        <v>1.299397493</v>
       </c>
       <c r="F7" s="3">
         <v>1.212415172</v>
@@ -670,10 +670,10 @@
         <v>1.001869185</v>
       </c>
       <c r="D8" s="3">
-        <v>1.202103556</v>
+        <v>1.204465398</v>
       </c>
       <c r="E8" s="3">
-        <v>1.175606075</v>
+        <v>1.292144173</v>
       </c>
       <c r="F8" s="3">
         <v>1.205031197</v>
@@ -696,10 +696,10 @@
         <v>1.056951608</v>
       </c>
       <c r="D9" s="3">
-        <v>1.219217132</v>
+        <v>1.218147487</v>
       </c>
       <c r="E9" s="3">
-        <v>1.262902621</v>
+        <v>1.325567315</v>
       </c>
       <c r="F9" s="3">
         <v>1.222495308</v>
@@ -722,10 +722,10 @@
         <v>1.094847677</v>
       </c>
       <c r="D10" s="3">
-        <v>1.20768935</v>
+        <v>1.210724827</v>
       </c>
       <c r="E10" s="3">
-        <v>1.312985696</v>
+        <v>1.343371159</v>
       </c>
       <c r="F10" s="3">
         <v>1.219336279</v>
@@ -748,10 +748,10 @@
         <v>1.012511794</v>
       </c>
       <c r="D11" s="3">
-        <v>1.200792969</v>
+        <v>1.204675149</v>
       </c>
       <c r="E11" s="3">
-        <v>1.20994812</v>
+        <v>1.342562654</v>
       </c>
       <c r="F11" s="3">
         <v>1.218605625</v>
@@ -774,10 +774,10 @@
         <v>1.000672967</v>
       </c>
       <c r="D12" s="3">
-        <v>1.167035589</v>
+        <v>1.208372733</v>
       </c>
       <c r="E12" s="3">
-        <v>1.087619118</v>
+        <v>1.267926445</v>
       </c>
       <c r="F12" s="3">
         <v>1.206435418</v>
@@ -800,10 +800,10 @@
         <v>1.00778024</v>
       </c>
       <c r="D13" s="3">
-        <v>1.011498531</v>
+        <v>1.015771636</v>
       </c>
       <c r="E13" s="3">
-        <v>1.018490677</v>
+        <v>1.019007469</v>
       </c>
       <c r="F13" s="3">
         <v>1.015587786</v>
@@ -826,10 +826,10 @@
         <v>1.143231284</v>
       </c>
       <c r="D14" s="3">
-        <v>1.252342249</v>
+        <v>1.267084355</v>
       </c>
       <c r="E14" s="3">
-        <v>1.357314283</v>
+        <v>1.387519745</v>
       </c>
       <c r="F14" s="3">
         <v>1.271770695</v>
@@ -852,7 +852,7 @@
         <v>1.047682845</v>
       </c>
       <c r="D15" s="3">
-        <v>1.091743875</v>
+        <v>1.109559743</v>
       </c>
       <c r="E15" s="3">
         <v>1.213457809</v>
@@ -878,10 +878,10 @@
         <v>1.045820092</v>
       </c>
       <c r="D16" s="3">
-        <v>1.156311054</v>
+        <v>1.166633613</v>
       </c>
       <c r="E16" s="3">
-        <v>1.189579543</v>
+        <v>1.244518276</v>
       </c>
       <c r="F16" s="3">
         <v>1.170361225</v>
